--- a/Data_science_outputs/1000pop/output_results/output_analysis_4.xlsx
+++ b/Data_science_outputs/1000pop/output_results/output_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39254.72755280882</v>
+        <v>30629.02242373102</v>
       </c>
       <c r="C3" t="n">
         <v>22835.85898998008</v>
       </c>
       <c r="D3" t="n">
-        <v>8870.97711288187</v>
+        <v>2001.12292375598</v>
       </c>
       <c r="E3" t="n">
-        <v>7434.546439218648</v>
+        <v>5766.766797521235</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13076.2508064951</v>
+        <v>13511.2030964431</v>
       </c>
       <c r="C4" t="n">
         <v>11487.98789969042</v>
       </c>
       <c r="D4" t="n">
-        <v>7775.898433599707</v>
+        <v>1247.804389540655</v>
       </c>
       <c r="E4" t="n">
-        <v>5882.775201984452</v>
+        <v>4278.85471380049</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6644.030000000002</v>
+        <v>5285.039000000002</v>
       </c>
       <c r="C5" t="n">
         <v>4941.019000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>4.004</v>
+        <v>5.001</v>
       </c>
       <c r="E5" t="n">
-        <v>226.012</v>
+        <v>169.012</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30593.05975000001</v>
+        <v>19549.02975</v>
       </c>
       <c r="C6" t="n">
         <v>13921.27675</v>
       </c>
       <c r="D6" t="n">
-        <v>863.0039999999999</v>
+        <v>814.003</v>
       </c>
       <c r="E6" t="n">
-        <v>2923.00875</v>
+        <v>2653</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37588.37550000003</v>
+        <v>27817.31150000003</v>
       </c>
       <c r="C7" t="n">
         <v>19143.89500000006</v>
       </c>
       <c r="D7" t="n">
-        <v>8183.5015</v>
+        <v>1943</v>
       </c>
       <c r="E7" t="n">
-        <v>5740.5285</v>
+        <v>4615.0175</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49919.90850000009</v>
+        <v>41079.22675</v>
       </c>
       <c r="C8" t="n">
         <v>31448.36125000012</v>
       </c>
       <c r="D8" t="n">
-        <v>17159</v>
+        <v>3235.001</v>
       </c>
       <c r="E8" t="n">
-        <v>9595.014999999999</v>
+        <v>7265.011999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85516.44799999986</v>
+        <v>78071.52599999974</v>
       </c>
       <c r="C9" t="n">
         <v>49014.44999999986</v>
       </c>
       <c r="D9" t="n">
-        <v>19210</v>
+        <v>6008.009</v>
       </c>
       <c r="E9" t="n">
-        <v>49465.015</v>
+        <v>35450.013</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>20632284801.762</v>
+        <v>16098614185.915</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>230185458.6190001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5846226793913727</v>
+        <v>0.7463879318832842</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>4662585570.537001</v>
+        <v>1051790208.726</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2259849364884114</v>
+        <v>0.06533420806160024</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>3907597608.453001</v>
+        <v>3031012628.777001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1893923841202159</v>
+        <v>0.1882778600551155</v>
       </c>
     </row>
   </sheetData>
